--- a/biology/Zoologie/Dicraeosauridae/Dicraeosauridae.xlsx
+++ b/biology/Zoologie/Dicraeosauridae/Dicraeosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dicraeosauridae (dicraeosauridés en français) forment une famille de dinosaures sauropodes néosauropodes placés en groupe frère de la famille des diplodocidés au sein de la super-famille des diplodocoïdes, soit directement selon Sander et ses collègues en 2011[2] et Wilson et Allain en 2015[3], soit en s'enboîtant dans les clades intermédiaires des Flagellicaudata et des Diplodocimorpha selon Emanuel Tschopp, Octavio Mateus et Roger B.J. Benson en 2015[4] et Fanti et ses collègues également en 2015[5].
-Ils ont vécu en Afrique, en Amérique du Sud et en Amérique du Nord[6], du Jurassique supérieur[7] jusqu'au Crétacé inférieur (Barrémien), où seul le genre Amargasaurus est connu[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dicraeosauridae (dicraeosauridés en français) forment une famille de dinosaures sauropodes néosauropodes placés en groupe frère de la famille des diplodocidés au sein de la super-famille des diplodocoïdes, soit directement selon Sander et ses collègues en 2011 et Wilson et Allain en 2015, soit en s'enboîtant dans les clades intermédiaires des Flagellicaudata et des Diplodocimorpha selon Emanuel Tschopp, Octavio Mateus et Roger B.J. Benson en 2015 et Fanti et ses collègues également en 2015.
+Ils ont vécu en Afrique, en Amérique du Sud et en Amérique du Nord, du Jurassique supérieur jusqu'au Crétacé inférieur (Barrémien), où seul le genre Amargasaurus est connu.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Dicraeosaurus, découvert en Tanzanie a été décrit par le paléontologue allemand Werner Janensch en 1914[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Dicraeosaurus, découvert en Tanzanie a été décrit par le paléontologue allemand Werner Janensch en 1914,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces sauropodes se distinguent des autres membres de ce clade par une taille plus modeste et un cou relativement court[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces sauropodes se distinguent des autres membres de ce clade par une taille plus modeste et un cou relativement court.
 </t>
         </is>
       </c>
@@ -574,12 +590,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Dicraeosauridae est monophylétique et bien caractérisé par 16 synapomorphies partagées par les genres qui le composent[11]. Les Dicraeosauridae et les Diplodocidae ont probablement divergé au cours du Jurassique moyen, comme le montre la diversité des dicraeosauridés aussi bien en Amérique du Sud qu'en Afrique de l'est à une période où ces continents n'étaient pas encore séparés et formaient le Gondwana[11].
-L'appartenance du seul genre nord-américain, Suuwassea, aux dicraeosauridés est discutée entre ceux qui le placent comme un membre basal de cette famille et ceux qui en font un Diplodocidae[11],[12].
-Cladogramme
-L'analyse phylogénétique des Diplodocoidea réalisée par Emanuel Tschopp, Octavio Mateus et Roger B.J. Benson en 2015 conduit au cladogramme suivant, qui montre la position des Dicraeosauridae dans ce clade, et sa relation en groupe frère avec les Diplodocidae[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Dicraeosauridae est monophylétique et bien caractérisé par 16 synapomorphies partagées par les genres qui le composent. Les Dicraeosauridae et les Diplodocidae ont probablement divergé au cours du Jurassique moyen, comme le montre la diversité des dicraeosauridés aussi bien en Amérique du Sud qu'en Afrique de l'est à une période où ces continents n'étaient pas encore séparés et formaient le Gondwana.
+L'appartenance du seul genre nord-américain, Suuwassea, aux dicraeosauridés est discutée entre ceux qui le placent comme un membre basal de cette famille et ceux qui en font un Diplodocidae,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dicraeosauridae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dicraeosauridae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique des Diplodocoidea réalisée par Emanuel Tschopp, Octavio Mateus et Roger B.J. Benson en 2015 conduit au cladogramme suivant, qui montre la position des Dicraeosauridae dans ce clade, et sa relation en groupe frère avec les Diplodocidae :
 </t>
         </is>
       </c>
